--- a/classification/droptc/neo-bert/freeze/67351593/prediction.xlsx
+++ b/classification/droptc/neo-bert/freeze/67351593/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8083478808403015</v>
+        <v>0.7573333978652954</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5498941540718079</v>
+        <v>0.8995409607887268</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8354421854019165</v>
+        <v>0.4742587804794312</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4836302399635315</v>
+        <v>0.6809177398681641</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4999102652072906</v>
+        <v>0.862654447555542</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.8644223809242249</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7297294139862061</v>
+        <v>0.6166768670082092</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9565853476524353</v>
+        <v>0.2968113124370575</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9497228860855103</v>
+        <v>0.7774965763092041</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7654677629470825</v>
+        <v>0.7985855937004089</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.716237485408783</v>
+        <v>0.836408257484436</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5154184103012085</v>
+        <v>0.7467250227928162</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.5191622376441956</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.5612872242927551</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3788249492645264</v>
+        <v>0.8919199705123901</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3939403295516968</v>
+        <v>0.3565413653850555</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.5937435030937195</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9450210928916931</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8760925531387329</v>
+        <v>0.7857457399368286</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4791485667228699</v>
+        <v>0.5154165029525757</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6437613368034363</v>
+        <v>0.7553659081459045</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6730481386184692</v>
+        <v>0.8158277869224548</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6632767915725708</v>
+        <v>0.9888012409210205</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.368467777967453</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9688951373100281</v>
+        <v>0.4458702504634857</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.8627951741218567</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.9244044423103333</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7096468806266785</v>
+        <v>0.8183037042617798</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.97995525598526</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8493021130561829</v>
+        <v>0.7921533584594727</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9655225872993469</v>
+        <v>0.9521856307983398</v>
       </c>
     </row>
     <row r="34">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.6618473529815674</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.5678883790969849</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9610159993171692</v>
+        <v>0.6600551009178162</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4326611757278442</v>
+        <v>0.4930385947227478</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.699696958065033</v>
+        <v>0.9714041352272034</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8247070908546448</v>
+        <v>0.8424766063690186</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9208796620368958</v>
+        <v>0.7334362864494324</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5518379807472229</v>
+        <v>0.5392903685569763</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4980758726596832</v>
+        <v>0.3801854848861694</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7096589803695679</v>
+        <v>0.8849543333053589</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4021060168743134</v>
+        <v>0.396089494228363</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8682397603988647</v>
+        <v>0.942327618598938</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.828207790851593</v>
+        <v>0.909733772277832</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7454019784927368</v>
+        <v>0.5838221907615662</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8513959646224976</v>
+        <v>0.6070908904075623</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.8882371783256531</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7641497850418091</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6213806867599487</v>
+        <v>0.7616814374923706</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.929438591003418</v>
+        <v>0.4972670674324036</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7053418755531311</v>
+        <v>0.7470853924751282</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4472375214099884</v>
+        <v>0.4972670674324036</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5125277638435364</v>
+        <v>0.8925318717956543</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6224995851516724</v>
+        <v>0.8312629461288452</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7600646615028381</v>
+        <v>0.8096935153007507</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3247043788433075</v>
+        <v>0.5041700601577759</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9243894815444946</v>
+        <v>0.440951019525528</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5203396677970886</v>
+        <v>0.9559332728385925</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3884379863739014</v>
+        <v>0.4630013108253479</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7778666615486145</v>
+        <v>0.7880627512931824</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9604416489601135</v>
+        <v>0.4315672814846039</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9610702991485596</v>
+        <v>0.4427507817745209</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.802747368812561</v>
+        <v>0.9391068816184998</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.6745309233665466</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.7373160719871521</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4785155951976776</v>
+        <v>0.9621061086654663</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7484671473503113</v>
+        <v>0.8478570580482483</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9555691480636597</v>
+        <v>0.8185805678367615</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7574840784072876</v>
+        <v>0.3169979751110077</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8231579065322876</v>
+        <v>0.4733359813690186</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.903229832649231</v>
+        <v>0.9675565361976624</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6439342498779297</v>
+        <v>0.73335862159729</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9593504071235657</v>
+        <v>0.394264280796051</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8393717408180237</v>
+        <v>0.8512192368507385</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8364729285240173</v>
+        <v>0.5323178768157959</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9831650257110596</v>
+        <v>0.7745043039321899</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8821849822998047</v>
+        <v>0.7050769329071045</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.4881285429000854</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8700818419456482</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5911749601364136</v>
+        <v>0.6583719253540039</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3974263072013855</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.4008449912071228</v>
+        <v>0.8429794311523438</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.43935626745224</v>
+        <v>0.8431508541107178</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6513535380363464</v>
+        <v>0.9398542642593384</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.7306404113769531</v>
+        <v>0.780357837677002</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.696035623550415</v>
+        <v>0.8824923634529114</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.4989246726036072</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.5439951419830322</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9550797939300537</v>
+        <v>0.7741378545761108</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.4018666446208954</v>
+        <v>0.9179226756095886</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7182374000549316</v>
+        <v>0.7573333978652954</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.991970419883728</v>
+        <v>0.5676025152206421</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.916209876537323</v>
+        <v>0.8104720115661621</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.621003270149231</v>
+        <v>0.4924732446670532</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.7956230044364929</v>
+        <v>0.4900746643543243</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9217507839202881</v>
+        <v>0.5586068630218506</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5972179174423218</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8995890021324158</v>
+        <v>0.9653204679489136</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5511196255683899</v>
+        <v>0.66683030128479</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7661871910095215</v>
+        <v>0.5152601003646851</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4133843183517456</v>
+        <v>0.5210251212120056</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8600553274154663</v>
+        <v>0.8613868355751038</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7499625086784363</v>
+        <v>0.9206058382987976</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8222122192382812</v>
+        <v>0.3639147579669952</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.4826361536979675</v>
+        <v>0.861436665058136</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5055290460586548</v>
+        <v>0.7593934535980225</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4757444560527802</v>
+        <v>0.7626478672027588</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.6544837355613708</v>
+        <v>0.9244044423103333</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8473323583602905</v>
+        <v>0.4144127666950226</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.7287167310714722</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.3901916146278381</v>
+        <v>0.7862436175346375</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2825218439102173</v>
+        <v>0.9450210928916931</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.4705968797206879</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8207299113273621</v>
+        <v>0.8699924349784851</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8745982050895691</v>
+        <v>0.9391914010047913</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3753398954868317</v>
+        <v>0.6526662707328796</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4739542901515961</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5567277073860168</v>
+        <v>0.9801768064498901</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7852211594581604</v>
+        <v>0.8435474038124084</v>
       </c>
     </row>
     <row r="122">
@@ -3843,14 +3843,14 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6146852970123291</v>
+        <v>0.4387717247009277</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6094714403152466</v>
+        <v>0.6104037165641785</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.6698758006095886</v>
+        <v>0.4465293288230896</v>
       </c>
     </row>
     <row r="125">
@@ -3927,14 +3927,14 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5386305451393127</v>
+        <v>0.7445444464683533</v>
       </c>
     </row>
     <row r="126">
@@ -3955,14 +3955,14 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.3542820513248444</v>
+        <v>0.9789870381355286</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.6325459480285645</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.81972736120224</v>
+        <v>0.4132523238658905</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3767922818660736</v>
+        <v>0.5899760127067566</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.6221538186073303</v>
+        <v>0.8312629461288452</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.3912805020809174</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9096447825431824</v>
+        <v>0.9388488531112671</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9539830088615417</v>
+        <v>0.4605166912078857</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9164506196975708</v>
+        <v>0.7865627408027649</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9091532826423645</v>
+        <v>0.9059886932373047</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3975576460361481</v>
+        <v>0.7246426343917847</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6464698910713196</v>
+        <v>0.8664924502372742</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5037597417831421</v>
+        <v>0.767159104347229</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9259652495384216</v>
+        <v>0.8900327086448669</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4728617966175079</v>
+        <v>0.737713098526001</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8960246443748474</v>
+        <v>0.3604429960250854</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.8273695707321167</v>
+        <v>0.3725845813751221</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4738113284111023</v>
+        <v>0.7470853924751282</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.961845338344574</v>
+        <v>0.8248777389526367</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.503071129322052</v>
+        <v>0.8520022630691528</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4442293643951416</v>
+        <v>0.5080165863037109</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.802747368812561</v>
+        <v>0.7736766338348389</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5051309466362</v>
+        <v>0.9468274116516113</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9378178119659424</v>
+        <v>0.9629697799682617</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7579325437545776</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8209801912307739</v>
+        <v>0.5630621910095215</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8687252402305603</v>
+        <v>0.396089494228363</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8292484283447266</v>
+        <v>0.9105768203735352</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6627504825592041</v>
+        <v>0.8144127726554871</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5080556273460388</v>
+        <v>0.8663169145584106</v>
       </c>
     </row>
     <row r="156">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4638935923576355</v>
+        <v>0.8776931166648865</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8379144668579102</v>
+        <v>0.8096935153007507</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8674547076225281</v>
+        <v>0.9007893204689026</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5691381692886353</v>
+        <v>0.3912805020809174</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.535086989402771</v>
+        <v>0.8321760892868042</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6450055837631226</v>
+        <v>0.7748441100120544</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9707126021385193</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.762016236782074</v>
+        <v>0.9422872066497803</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9541250467300415</v>
+        <v>0.7187486886978149</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6326504945755005</v>
+        <v>0.8146357536315918</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.756725549697876</v>
+        <v>0.9303658008575439</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8571887612342834</v>
+        <v>0.7771717309951782</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.9240233302116394</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9350173473358154</v>
+        <v>0.7246426343917847</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8391321897506714</v>
+        <v>0.7470853924751282</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6487089991569519</v>
+        <v>0.8808898329734802</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8620923161506653</v>
+        <v>0.7464958429336548</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3102940917015076</v>
+        <v>0.5392903685569763</v>
       </c>
     </row>
     <row r="174">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="E174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8700049519538879</v>
+        <v>0.4075197875499725</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5933001041412354</v>
+        <v>0.5120830535888672</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5533017516136169</v>
+        <v>0.7690674662590027</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.7095666527748108</v>
+        <v>0.8151979446411133</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.7853907942771912</v>
+        <v>0.4860565960407257</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9563272595405579</v>
+        <v>0.8309155106544495</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7031205892562866</v>
+        <v>0.861436665058136</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.415401965379715</v>
+        <v>0.8010478019714355</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9405987858772278</v>
+        <v>0.9700506329536438</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7944394946098328</v>
+        <v>0.4251918196678162</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.7259900569915771</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8612337708473206</v>
+        <v>0.9255173802375793</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5849875807762146</v>
+        <v>0.3937753140926361</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8031851053237915</v>
+        <v>0.4796663224697113</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8417440056800842</v>
+        <v>0.5845369696617126</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7252576351165771</v>
+        <v>0.892973780632019</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.4475770890712738</v>
+        <v>0.7501556277275085</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9010603427886963</v>
+        <v>0.5120830535888672</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8887050747871399</v>
+        <v>0.8096935153007507</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9135679006576538</v>
+        <v>0.9193671345710754</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7554668784141541</v>
+        <v>0.7224928736686707</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7528043389320374</v>
+        <v>0.6727836132049561</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9200946688652039</v>
+        <v>0.8067678809165955</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.682648241519928</v>
+        <v>0.9611400961875916</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9458490014076233</v>
+        <v>0.7903699278831482</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.4914770424365997</v>
+        <v>0.4199270009994507</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9088032841682434</v>
+        <v>0.8991683125495911</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3798388838768005</v>
+        <v>0.9256356358528137</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7083860039710999</v>
+        <v>0.5586029291152954</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6898691654205322</v>
+        <v>0.5714289546012878</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4441292583942413</v>
+        <v>0.5554257035255432</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8908553123474121</v>
+        <v>0.8690947890281677</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4643362760543823</v>
+        <v>0.7246426343917847</v>
       </c>
     </row>
     <row r="207">
@@ -6223,14 +6223,14 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.5195571780204773</v>
+        <v>0.4972670674324036</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030292391777039</v>
+        <v>0.5498260259628296</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9706861972808838</v>
+        <v>0.6773940324783325</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8086134791374207</v>
+        <v>0.4556481242179871</v>
       </c>
     </row>
   </sheetData>
